--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29117311240812488</v>
+        <v>0.2911636164037934</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29135258414293208</v>
+        <v>0.29136534467023101</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-4.9778673921510519e-05</v>
+        <v>-4.7098465475294568e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>9.8525597927033904e-05</v>
+        <v>9.9459169207487835e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>1.3684635946574199e-06</v>
+        <v>5.0235990409296673e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>8.6289917324528966e-06</v>
+        <v>8.6029524228423345e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.9525780147395494e-06</v>
+        <v>-1.8004373285960302e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>3.5571947181726249e-05</v>
+        <v>3.5577259129439337e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-7.4250772699180345e-05</v>
+        <v>-7.4250960710287028e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28983460899759306</v>
+        <v>0.28967452880841077</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00046103824850820028</v>
+        <v>-0.00052809552062833527</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1416186866950986e-06</v>
+        <v>1.1403316501113045e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>3.2831472694076734e-06</v>
+        <v>3.2425268034234206e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.3328619062665868e-06</v>
+        <v>4.288258152585392e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>1.6424413317416534e-05</v>
+        <v>1.6426382003275625e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.9101444866241342e-05</v>
+        <v>-3.9673963377687186e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.5646366831075813e-05</v>
+        <v>4.5647522230907178e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28689473523884551</v>
+        <v>0.28691914465085133</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00034267778488126821</v>
+        <v>0.00041142587951390792</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.00053850099826888522</v>
+        <v>-0.0005355935051578717</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00015059734991465233</v>
+        <v>-0.00015120801069230279</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00042691174441385736</v>
+        <v>-0.00042953206308585516</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00017305959151383502</v>
+        <v>-0.00017285228764353869</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.5298359342930203e-05</v>
+        <v>-1.5400701604121397e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-3.5292203895153718e-05</v>
+        <v>-3.5270070739567232e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.0266784902608386e-05</v>
+        <v>5.0266491258221802e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30198460677204098</v>
+        <v>0.30199844494534611</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0068103374170832478</v>
+        <v>0.0068055803533970151</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.3467784155289814e-07</v>
+        <v>4.3460976503154901e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.111618943637894e-05</v>
+        <v>-5.1116093642896521e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.5321594806003148e-05</v>
+        <v>-1.5343767745636981e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0003244889546858865</v>
+        <v>-0.00032455457911904862</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00069136793429092069</v>
+        <v>-0.00069136854246054646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29671845482406056</v>
+        <v>0.29673150501952328</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0014179776037648939</v>
+        <v>-0.0014172882290721873</v>
       </c>
       <c r="E7" s="0">
-        <v>-6.5668801996779353e-05</v>
+        <v>-6.5539608027155748e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00064915609361628737</v>
+        <v>-0.00064854301684427306</v>
       </c>
       <c r="G7" s="0">
-        <v>7.0001296430967876e-05</v>
+        <v>7.0007204657696818e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.6663086361271647e-05</v>
+        <v>3.6662663963353803e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.00050098201317705371</v>
+        <v>-0.0005009820080352223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.31757778292234218</v>
+        <v>0.3174168217283419</v>
       </c>
       <c r="C8" s="0">
-        <v>0.008363101637332027</v>
+        <v>0.0083044396698239743</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-6.5355266451177011e-07</v>
+        <v>-6.535629445892746e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00028124076652202867</v>
+        <v>-0.00028123860817182199</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>7.5765752873519787e-07</v>
+        <v>7.5755858353043634e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00047475480984102305</v>
+        <v>-0.00047470596013378001</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>1.6405901344884732e-05</v>
+        <v>1.6407094301729153e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30034480085704213</v>
+        <v>0.30017669794544355</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00036539049018498483</v>
+        <v>0.00036872819708495564</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0011385912226806526</v>
+        <v>-0.0011390029640799596</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0061564128576532436</v>
+        <v>-0.0061574420888025425</v>
       </c>
       <c r="G9" s="0">
-        <v>5.1351965696575559e-05</v>
+        <v>5.1541026403928984e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00020151637784188278</v>
+        <v>-0.00020156826556262826</v>
       </c>
       <c r="I9" s="0">
-        <v>-1.8788357252502978e-05</v>
+        <v>-1.8768452536362621e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>4.853446235814074e-05</v>
+        <v>4.8534347821038715e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.27518176742460704</v>
+        <v>0.2744272584644743</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0021407489486776447</v>
+        <v>0.0021685996602088709</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>7.6088381715367237e-07</v>
+        <v>7.6147396097620782e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0001943023583605672</v>
+        <v>-0.0001938541292178688</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.4669809358102793e-06</v>
+        <v>3.467196603941974e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-4.3899239997194374e-05</v>
+        <v>-4.3495937542944358e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022099387306704025</v>
+        <v>-0.0022210865503780354</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00082417400929996054</v>
+        <v>0.00082417556161812344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.26596891178590087</v>
+        <v>0.26537080936878038</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0030985346594714679</v>
+        <v>0.0031170447933382165</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00067299132848740151</v>
+        <v>-0.00066696701731159159</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0041399419012700675</v>
+        <v>-0.0041151407683819993</v>
       </c>
       <c r="G11" s="0">
-        <v>1.0387447829646298e-05</v>
+        <v>1.0298861605260475e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.5820742750123152e-05</v>
+        <v>-2.4682683877119419e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-4.8356375406748381e-05</v>
+        <v>-4.8274579780456181e-05</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0011938601226124668</v>
+        <v>0.0011938580748458438</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.21998524273585271</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.034424313886733074</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>7.4350782594187979e-06</v>
+      </c>
+      <c r="F12" s="0">
+        <v>1.1677220630371584e-06</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-1.4008127900192719e-06</v>
+      </c>
+      <c r="I12" s="0">
+        <v>0.00038163294133230683</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.0037435821322276963</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,16 +388,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.77734375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
     <col min="10" max="10" width="15.77734375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2911636164037934</v>
+        <v>0.29119088512610775</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29136534467023101</v>
+        <v>0.2913811931743181</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-4.7098465475294568e-05</v>
+        <v>-4.8762276816753688e-05</v>
       </c>
       <c r="E3" s="0">
-        <v>9.9459169207487835e-05</v>
+        <v>9.9073077867399179e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>5.0235990409296673e-06</v>
+        <v>3.5498102071107789e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>8.6029524228423345e-06</v>
+        <v>8.5882813577027947e-06</v>
       </c>
       <c r="H3" s="0">
-        <v>-1.8004373285960302e-06</v>
+        <v>-1.8628567325028925e-06</v>
       </c>
       <c r="I3" s="0">
-        <v>3.5577259129439337e-05</v>
+        <v>3.554083257798678e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>-7.4250960710287028e-05</v>
+        <v>-7.4250835373046442e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28967452880841077</v>
+        <v>0.28959492352938415</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.00052809552062833527</v>
+        <v>-0.00055642748639711461</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1.1403316501113045e-06</v>
+        <v>1.1409211265541111e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>3.2425268034234206e-06</v>
+        <v>3.215496826397306e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>4.288258152585392e-06</v>
+        <v>4.2529872597724579e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>1.6426382003275625e-05</v>
+        <v>1.6397755088685242e-05</v>
       </c>
       <c r="J4" s="0">
-        <v>-3.9673963377687186e-05</v>
+        <v>-4.2673923986120393e-05</v>
       </c>
       <c r="K4" s="0">
-        <v>4.5647522230907178e-05</v>
+        <v>4.5647857588870799e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.28691914465085133</v>
+        <v>0.28679300448781331</v>
       </c>
       <c r="C5" s="0">
-        <v>0.00041142587951390792</v>
+        <v>0.00038933528638741296</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.0005355935051578717</v>
+        <v>-0.00053543478399550566</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00015120801069230279</v>
+        <v>-0.00015181908180390602</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00042953206308585516</v>
+        <v>-0.0004320940064490093</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.00017285228764353869</v>
+        <v>-0.0001727659609634681</v>
       </c>
       <c r="H5" s="0">
-        <v>-1.5400701604121397e-05</v>
+        <v>-1.5503769293792582e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-3.5270070739567232e-05</v>
+        <v>-3.5260531410205036e-05</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>5.0266491258221802e-05</v>
+        <v>5.0266335367699089e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30199844494534611</v>
+        <v>0.3019670090211275</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0068055803533970151</v>
+        <v>0.0068427690691768277</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>4.3460976503154901e-07</v>
+        <v>4.345595629786481e-07</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.1116093642896521e-05</v>
+        <v>-5.0858273830110286e-05</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-1.5343767745636981e-05</v>
+        <v>-1.5053233263713783e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00032455457911904862</v>
+        <v>-0.00032377897822939196</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.00069136854246054646</v>
+        <v>-0.00069136857814261488</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29673150501952328</v>
+        <v>0.29677011068420878</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0014172882290721873</v>
+        <v>-0.0014062509406959549</v>
       </c>
       <c r="E7" s="0">
-        <v>-6.5539608027155748e-05</v>
+        <v>-6.1986870597094225e-05</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00064854301684427306</v>
+        <v>-0.00063408541187337075</v>
       </c>
       <c r="G7" s="0">
-        <v>7.0007204657696818e-05</v>
+        <v>6.9894323661766149e-05</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>3.6662663963353803e-05</v>
+        <v>3.6666085509135584e-05</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0005009820080352223</v>
+        <v>-0.00050098267151565956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.3174168217283419</v>
+        <v>0.31833174139643666</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0083044396698239743</v>
+        <v>0.0085999399242794421</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>-6.535629445892746e-07</v>
+        <v>-6.5378234983144862e-07</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.00028123860817182199</v>
+        <v>-0.00028142975404302098</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>7.5755858353043634e-07</v>
+        <v>7.5253960606137832e-07</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.00047470596013378001</v>
+        <v>-0.00047542875180743566</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>1.6407094301729153e-05</v>
+        <v>1.6404392528202028e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>0.30017669794544355</v>
+        <v>0.30096784008220606</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0.00036872819708495564</v>
+        <v>0.00034053766426110318</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0011390029640799596</v>
+        <v>-0.0011423409089969163</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.0061574420888025425</v>
+        <v>-0.006170789999804872</v>
       </c>
       <c r="G9" s="0">
-        <v>5.1541026403928984e-05</v>
+        <v>5.0635313507552498e-05</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.00020156826556262826</v>
+        <v>-0.00020220368257071255</v>
       </c>
       <c r="I9" s="0">
-        <v>-1.8768452536362621e-05</v>
+        <v>-1.8867524338812336e-05</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>4.8534347821038715e-05</v>
+        <v>4.8536392616094215e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2744272584644743</v>
+        <v>0.27527770093866438</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0021685996602088709</v>
+        <v>0.002119928450865748</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>7.6147396097620782e-07</v>
+        <v>7.628064924210124e-07</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0001938541292178688</v>
+        <v>-0.00019580573503197486</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>3.467196603941974e-06</v>
+        <v>3.4681580094319251e-06</v>
       </c>
       <c r="I10" s="0">
-        <v>-4.3495937542944358e-05</v>
+        <v>-4.5372654844896277e-05</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.0022210865503780354</v>
+        <v>-0.0021699743669404961</v>
       </c>
       <c r="K10" s="0">
-        <v>0.00082417556161812344</v>
+        <v>0.00082417534240897261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.26537080936878038</v>
+        <v>0.2657542981748503</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0031170447933382165</v>
+        <v>0.0030344747828692986</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.00066696701731159159</v>
+        <v>-0.00069180131380641989</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.0041151407683819993</v>
+        <v>-0.0042189773490949887</v>
       </c>
       <c r="G11" s="0">
-        <v>1.0298861605260475e-05</v>
+        <v>1.03331086481168e-05</v>
       </c>
       <c r="H11" s="0">
-        <v>-2.4682683877119419e-05</v>
+        <v>-2.9437123538459406e-05</v>
       </c>
       <c r="I11" s="0">
-        <v>-4.8274579780456181e-05</v>
+        <v>-4.9000627272944848e-05</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>0.0011938580748458438</v>
+        <v>0.0011938625942231051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.21998524273585271</v>
+        <v>0.21789964415687418</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.034424313886733074</v>
+        <v>-0.039578144885613849</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>7.4350782594187979e-06</v>
+        <v>7.2976199062730413e-06</v>
       </c>
       <c r="F12" s="0">
-        <v>1.1677220630371584e-06</v>
+        <v>0.00074403131171108894</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-1.4008127900192719e-06</v>
+        <v>0.00028583632437977047</v>
       </c>
       <c r="I12" s="0">
-        <v>0.00038163294133230683</v>
+        <v>-0.0040988000098776687</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.0037435821322276963</v>
+        <v>-0.0037875138568155831</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.21351160360155075</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.041436124101334584</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.0048947534279017574</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.0025168546183330074</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00020719851309347043</v>
+      </c>
+      <c r="H13" s="0">
+        <v>-0.00016645515351674262</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0013856205261760478</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.00049004989461212678</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.076746997355941399</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.19850068754228903</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-1.5858378460578675e-05</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-2.723768311761114e-05</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-1.837748512377012e-06</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.0050499889232543931</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>1.3868369554692617e-06</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q4_Nr1_Np3_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="12.64453125" customWidth="true"/>
+    <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="16.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.77734375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.29119088512610775</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.2913811931743181</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28959492352938415</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28679300448781331</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.3019670090211275</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.29677011068420878</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.31833174139643666</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>0.30096784008220606</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.27527770093866438</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.2657542981748503</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.21789964415687418</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.21351160360155075</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.076746997355941399</v>
+        <v>0.073439085757425471</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.19850068754228903</v>
+        <v>-0.19762886415285696</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-1.5858378460578675e-05</v>
+        <v>-1.6400784471560518e-05</v>
       </c>
       <c r="F14" s="0">
-        <v>-2.723768311761114e-05</v>
+        <v>-0.00086526913004413908</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-1.837748512377012e-06</v>
+        <v>-0.0021417180744951439</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.0050499889232543931</v>
+        <v>-0.0086860647379834229</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>1.3868369554692617e-06</v>
+        <v>0.00035750015927266121</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.0099113172776192915</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.13439936938452671</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.0032347868612926183</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.0093612850468772803</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0048568033254180335</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.0064827888893023017</v>
       </c>
     </row>
   </sheetData>
